--- a/public/informes/1580/1580_0_1 INTERIOR 50 ML BURGUESE/1580_0_1 2021-09-14.xlsx
+++ b/public/informes/1580/1580_0_1 INTERIOR 50 ML BURGUESE/1580_0_1 2021-09-14.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.26.0.12\samba-share\CARPETA COMÚ\INFORMES MOTLLES\Terminados\1580\1580_0_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.26.0.13\CompartidaFabrica\INFORMES MOTLLES\Terminados\1580\1580_0_1 INTERIOR 50 ML BURGUESE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21736" windowHeight="8939"/>
   </bookViews>
   <sheets>
     <sheet name="MOLDE" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Buscar versiones, no estan identificadas y no se corresponden con la muestra que me entregan.- Monto la que mas se le parece suponiendo que se ha realizado alguna modificacion que no esta documentada en el historial.Cambiar toricas, comprobar refrigeracion, quitar golpes a las placas, engrasar cremallera.</t>
   </si>
   <si>
-    <t>3/05/2021 Taller Parte movil</t>
-  </si>
-  <si>
     <t>29/04/2021 Taller Parte movil</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Desmontar parte expulsion entera, al estar ocupado el centro de gravedad del molde, realizar 2 agujeros a m-12 lo mas cerca posible al centro de gravedad. Montar completo, engrasar, comprobar circuito y cerrar molde.OSC.</t>
+  </si>
+  <si>
+    <t>03/05/2021 Taller Parte movil</t>
   </si>
 </sst>
 </file>
@@ -336,6 +336,15 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,15 +364,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -403,7 +403,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -705,54 +705,54 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="46.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="46.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:7" ht="51.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="20"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="F3" s="25">
+      <c r="C3" s="26"/>
+      <c r="F3" s="18">
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>44083</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="67.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
@@ -806,18 +806,18 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="131.30000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="2"/>
@@ -825,39 +825,39 @@
     </row>
     <row r="9" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:7" ht="85.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="11"/>
@@ -866,7 +866,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="11"/>
@@ -875,7 +875,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="11"/>
@@ -884,7 +884,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="11"/>
